--- a/data/zenodo_ivan/flows/CHE_flow_passenger.xlsx
+++ b/data/zenodo_ivan/flows/CHE_flow_passenger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/flows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E4414B-2BCF-F342-8364-71B7AA5EBB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C7E6A-754A-784E-A5E8-80AB69C4B772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>passenger</t>
   </si>
   <si>
-    <t>pkm</t>
-  </si>
-  <si>
     <t>OFS: Prestations du transport de personnes (PV-L), Statistique des transports publics (TP)</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>CHE_flow_passenger.xlsx</t>
+  </si>
+  <si>
+    <t>Mpkm</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -633,19 +633,19 @@
         <v>1990</v>
       </c>
       <c r="G6">
-        <v>90736700000</v>
+        <v>90736.7</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -665,19 +665,19 @@
         <v>1991</v>
       </c>
       <c r="G7">
-        <v>93306900000</v>
+        <v>93306.9</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -697,19 +697,19 @@
         <v>1992</v>
       </c>
       <c r="G8">
-        <v>91304500000</v>
+        <v>91304.5</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -729,19 +729,19 @@
         <v>1993</v>
       </c>
       <c r="G9">
-        <v>89435400000</v>
+        <v>89435.4</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -761,19 +761,19 @@
         <v>1994</v>
       </c>
       <c r="G10">
-        <v>86714200000</v>
+        <v>86714.2</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -793,19 +793,19 @@
         <v>1995</v>
       </c>
       <c r="G11">
-        <v>85832600000</v>
+        <v>85832.6</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -825,19 +825,19 @@
         <v>1996</v>
       </c>
       <c r="G12">
-        <v>87181600000</v>
+        <v>87181.6</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -857,19 +857,19 @@
         <v>1997</v>
       </c>
       <c r="G13">
-        <v>88034000000</v>
+        <v>88034</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -889,19 +889,19 @@
         <v>1998</v>
       </c>
       <c r="G14">
-        <v>92499000000</v>
+        <v>92499</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -921,19 +921,19 @@
         <v>1999</v>
       </c>
       <c r="G15">
-        <v>93851000000</v>
+        <v>93851</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -953,19 +953,19 @@
         <v>2000</v>
       </c>
       <c r="G16">
-        <v>95560900000.000015</v>
+        <v>95560.900000000009</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -985,19 +985,19 @@
         <v>2001</v>
       </c>
       <c r="G17">
-        <v>96838600000</v>
+        <v>96838.6</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1017,19 +1017,19 @@
         <v>2002</v>
       </c>
       <c r="G18">
-        <v>98579200000</v>
+        <v>98579.199999999997</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1049,19 +1049,19 @@
         <v>2003</v>
       </c>
       <c r="G19">
-        <v>99721200000.000015</v>
+        <v>99721.200000000012</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1081,19 +1081,19 @@
         <v>2004</v>
       </c>
       <c r="G20">
-        <v>100888300000</v>
+        <v>100888.3</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1113,19 +1113,19 @@
         <v>2005</v>
       </c>
       <c r="G21">
-        <v>102082000000</v>
+        <v>102082</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1145,19 +1145,19 @@
         <v>2006</v>
       </c>
       <c r="G22">
-        <v>103475200000</v>
+        <v>103475.2</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1177,19 +1177,19 @@
         <v>2007</v>
       </c>
       <c r="G23">
-        <v>105397500000</v>
+        <v>105397.5</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1209,19 +1209,19 @@
         <v>2008</v>
       </c>
       <c r="G24">
-        <v>107732369829.46931</v>
+        <v>107732.36982946932</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1241,19 +1241,19 @@
         <v>2009</v>
       </c>
       <c r="G25">
-        <v>111219192143.51295</v>
+        <v>111219.19214351295</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1273,19 +1273,19 @@
         <v>2010</v>
       </c>
       <c r="G26">
-        <v>114099035963.86658</v>
+        <v>114099.03596386658</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1305,19 +1305,19 @@
         <v>2011</v>
       </c>
       <c r="G27">
-        <v>115321802396.41293</v>
+        <v>115321.80239641294</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1337,19 +1337,19 @@
         <v>2012</v>
       </c>
       <c r="G28">
-        <v>116639937309.78229</v>
+        <v>116639.93730978228</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1369,19 +1369,19 @@
         <v>2013</v>
       </c>
       <c r="G29">
-        <v>118116450976.66743</v>
+        <v>118116.45097666743</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1401,19 +1401,19 @@
         <v>2014</v>
       </c>
       <c r="G30">
-        <v>119967784060.10854</v>
+        <v>119967.78406010853</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1433,19 +1433,19 @@
         <v>2015</v>
       </c>
       <c r="G31">
-        <v>121718238480.63065</v>
+        <v>121718.23848063065</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1465,19 +1465,19 @@
         <v>2016</v>
       </c>
       <c r="G32">
-        <v>124280692021.56534</v>
+        <v>124280.69202156534</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1497,19 +1497,19 @@
         <v>2017</v>
       </c>
       <c r="G33">
-        <v>126218535557.62712</v>
+        <v>126218.53555762712</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1529,19 +1529,19 @@
         <v>2018</v>
       </c>
       <c r="G34">
-        <v>127236192945.50771</v>
+        <v>127236.1929455077</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1561,19 +1561,19 @@
         <v>2019</v>
       </c>
       <c r="G35">
-        <v>129622099866.23318</v>
+        <v>129622.09986623318</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="11:11" x14ac:dyDescent="0.2">

--- a/data/zenodo_ivan/flows/CHE_flow_passenger.xlsx
+++ b/data/zenodo_ivan/flows/CHE_flow_passenger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/flows/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C7E6A-754A-784E-A5E8-80AB69C4B772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBD585F-C22D-B54C-842D-956861131EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="25">
   <si>
     <t>Name:</t>
   </si>
@@ -101,13 +101,13 @@
     <t>https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/enquetes/pv-l.html</t>
   </si>
   <si>
-    <t>Sum of rail and road, excluding bicycles</t>
-  </si>
-  <si>
     <t>CHE_flow_passenger.xlsx</t>
   </si>
   <si>
     <t>Mpkm</t>
+  </si>
+  <si>
+    <t>Sum of Mpkm for all modes. Estimated values: Trams/Buses/Trolley estimated for &lt;1998, Soft mobility &lt;1994, public boats&lt;2007.</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -633,10 +633,10 @@
         <v>1990</v>
       </c>
       <c r="G6">
-        <v>90736.7</v>
+        <v>95133.808337202412</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
@@ -645,7 +645,7 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -665,10 +665,10 @@
         <v>1991</v>
       </c>
       <c r="G7">
-        <v>93306.9</v>
+        <v>96231.008337202395</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
@@ -677,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -697,10 +697,10 @@
         <v>1992</v>
       </c>
       <c r="G8">
-        <v>91304.5</v>
+        <v>95600.6083372024</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
@@ -709,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -729,10 +729,10 @@
         <v>1993</v>
       </c>
       <c r="G9">
-        <v>89435.4</v>
+        <v>95686.508337202409</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
@@ -741,7 +741,7 @@
         <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -761,10 +761,10 @@
         <v>1994</v>
       </c>
       <c r="G10">
-        <v>86714.2</v>
+        <v>96024.337490088757</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
@@ -773,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -793,10 +793,10 @@
         <v>1995</v>
       </c>
       <c r="G11">
-        <v>85832.6</v>
+        <v>95263.511635763178</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -805,7 +805,7 @@
         <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -825,10 +825,10 @@
         <v>1996</v>
       </c>
       <c r="G12">
-        <v>87181.6</v>
+        <v>96729.547851711759</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -857,10 +857,10 @@
         <v>1997</v>
       </c>
       <c r="G13">
-        <v>88034</v>
+        <v>97678.740304778476</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -869,7 +869,7 @@
         <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -889,10 +889,10 @@
         <v>1998</v>
       </c>
       <c r="G14">
-        <v>92499</v>
+        <v>98906.521400979342</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
@@ -901,7 +901,7 @@
         <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -921,10 +921,10 @@
         <v>1999</v>
       </c>
       <c r="G15">
-        <v>93851</v>
+        <v>100378.24041044943</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
         <v>20</v>
@@ -933,7 +933,7 @@
         <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -953,10 +953,10 @@
         <v>2000</v>
       </c>
       <c r="G16">
-        <v>95560.900000000009</v>
+        <v>102218.27989685429</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
         <v>20</v>
@@ -965,7 +965,7 @@
         <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -985,10 +985,10 @@
         <v>2001</v>
       </c>
       <c r="G17">
-        <v>96838.6</v>
+        <v>103621.75646017618</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -997,7 +997,7 @@
         <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1017,10 +1017,10 @@
         <v>2002</v>
       </c>
       <c r="G18">
-        <v>98579.199999999997</v>
+        <v>105514.1177275793</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -1029,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1049,10 +1049,10 @@
         <v>2003</v>
       </c>
       <c r="G19">
-        <v>99721.200000000012</v>
+        <v>106806.65015753482</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
@@ -1061,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1081,10 +1081,10 @@
         <v>2004</v>
       </c>
       <c r="G20">
-        <v>100888.3</v>
+        <v>108114.07200453606</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
@@ -1093,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1113,10 +1113,10 @@
         <v>2005</v>
       </c>
       <c r="G21">
-        <v>102082</v>
+        <v>109778.24511842233</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
         <v>20</v>
@@ -1125,7 +1125,7 @@
         <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1145,10 +1145,10 @@
         <v>2006</v>
       </c>
       <c r="G22">
-        <v>103475.2</v>
+        <v>111219.815829339</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -1157,7 +1157,7 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1177,10 +1177,10 @@
         <v>2007</v>
       </c>
       <c r="G23">
-        <v>105397.5</v>
+        <v>113202.1099954244</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
         <v>20</v>
@@ -1189,7 +1189,7 @@
         <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1209,10 +1209,10 @@
         <v>2008</v>
       </c>
       <c r="G24">
-        <v>107732.36982946932</v>
+        <v>115644.9614315371</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
         <v>20</v>
@@ -1221,7 +1221,7 @@
         <v>21</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1241,10 +1241,10 @@
         <v>2009</v>
       </c>
       <c r="G25">
-        <v>111219.19214351295</v>
+        <v>119244.17143367991</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
         <v>20</v>
@@ -1253,7 +1253,7 @@
         <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1273,10 +1273,10 @@
         <v>2010</v>
       </c>
       <c r="G26">
-        <v>114099.03596386658</v>
+        <v>122175.77117423796</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
         <v>20</v>
@@ -1285,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1305,10 +1305,10 @@
         <v>2011</v>
       </c>
       <c r="G27">
-        <v>115321.80239641294</v>
+        <v>123446.93057644294</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
         <v>20</v>
@@ -1317,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1337,10 +1337,10 @@
         <v>2012</v>
       </c>
       <c r="G28">
-        <v>116639.93730978228</v>
+        <v>124817.69570135229</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
@@ -1349,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1369,10 +1369,10 @@
         <v>2013</v>
       </c>
       <c r="G29">
-        <v>118116.45097666743</v>
+        <v>126348.64930924743</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
@@ -1381,7 +1381,7 @@
         <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1401,10 +1401,10 @@
         <v>2014</v>
       </c>
       <c r="G30">
-        <v>119967.78406010853</v>
+        <v>128261.34407471852</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
@@ -1413,7 +1413,7 @@
         <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1433,10 +1433,10 @@
         <v>2015</v>
       </c>
       <c r="G31">
-        <v>121718.23848063065</v>
+        <v>130084.58177608065</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
@@ -1445,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1465,10 +1465,10 @@
         <v>2016</v>
       </c>
       <c r="G32">
-        <v>124280.69202156534</v>
+        <v>132718.78289768533</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
         <v>20</v>
@@ -1477,7 +1477,7 @@
         <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1497,10 +1497,10 @@
         <v>2017</v>
       </c>
       <c r="G33">
-        <v>126218.53555762712</v>
+        <v>134748.7651726871</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
         <v>20</v>
@@ -1509,7 +1509,7 @@
         <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1529,10 +1529,10 @@
         <v>2018</v>
       </c>
       <c r="G34">
-        <v>127236.1929455077</v>
+        <v>135864.02593483773</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
         <v>20</v>
@@ -1541,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1561,10 +1561,10 @@
         <v>2019</v>
       </c>
       <c r="G35">
-        <v>129622.09986623318</v>
+        <v>138324.18024710321</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
         <v>20</v>
@@ -1573,7 +1573,71 @@
         <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>2020</v>
+      </c>
+      <c r="G36">
+        <v>117969.10022506714</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>2021</v>
+      </c>
+      <c r="G37">
+        <v>124656.13952624553</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="11:11" x14ac:dyDescent="0.2">
